--- a/tableCount.xlsx
+++ b/tableCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>表名</t>
   </si>
@@ -22,72 +22,135 @@
     <t>2021/06/10</t>
   </si>
   <si>
+    <t>2021/06/11</t>
+  </si>
+  <si>
     <t>jr_attachments</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>16848 (+16848)</t>
+  </si>
+  <si>
     <t>jr_o_margin_pay_record</t>
   </si>
   <si>
+    <t>9367 (+9367)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_detail</t>
   </si>
   <si>
+    <t>9166 (+9166)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_record</t>
   </si>
   <si>
+    <t>9369 (+9369)</t>
+  </si>
+  <si>
     <t>jr_o_meeting_place_plan</t>
   </si>
   <si>
+    <t>321 (+321)</t>
+  </si>
+  <si>
     <t>jr_o_pbsite_other_situation</t>
   </si>
   <si>
+    <t>0 (+0)</t>
+  </si>
+  <si>
     <t>jr_o_tenders</t>
   </si>
   <si>
     <t>jr_zfcg_contract</t>
   </si>
   <si>
+    <t>1714 (+1714)</t>
+  </si>
+  <si>
     <t>jr_zfcg_correction_item</t>
   </si>
   <si>
+    <t>424 (+424)</t>
+  </si>
+  <si>
     <t>jr_zfcg_evaluation_report</t>
   </si>
   <si>
+    <t>127 (+127)</t>
+  </si>
+  <si>
     <t>jr_zfcg_expert</t>
   </si>
   <si>
+    <t>2 (+2)</t>
+  </si>
+  <si>
     <t>jr_zfcg_notice</t>
   </si>
   <si>
+    <t>2240 (+2240)</t>
+  </si>
+  <si>
     <t>jr_zfcg_opening_record</t>
   </si>
   <si>
+    <t>2793 (+2793)</t>
+  </si>
+  <si>
     <t>jr_zfcg_project</t>
   </si>
   <si>
+    <t>2273 (+2273)</t>
+  </si>
+  <si>
     <t>jr_zfcg_purchase_project</t>
   </si>
   <si>
+    <t>2561 (+2561)</t>
+  </si>
+  <si>
     <t>jr_zfcg_result_notice</t>
   </si>
   <si>
+    <t>2125 (+2125)</t>
+  </si>
+  <si>
     <t>jr_zfcg_tender_list</t>
   </si>
   <si>
+    <t>8526 (+8526)</t>
+  </si>
+  <si>
     <t>jr_zt_fr_base</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
+    <t>9380 (+9325)</t>
+  </si>
+  <si>
     <t>jr_zt_zrr_base</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>0 (-5)</t>
+  </si>
+  <si>
+    <t>t_attachment_record</t>
+  </si>
+  <si>
+    <t>6128 (+6128)</t>
+  </si>
+  <si>
     <t>t_bank_trade_record</t>
   </si>
   <si>
@@ -97,24 +160,36 @@
     <t>3535</t>
   </si>
   <si>
+    <t>3538 (+3)</t>
+  </si>
+  <si>
     <t>t_collateral_record</t>
   </si>
   <si>
     <t>226</t>
   </si>
   <si>
+    <t>230 (+4)</t>
+  </si>
+  <si>
     <t>t_collateral_record_invalid</t>
   </si>
   <si>
     <t>214</t>
   </si>
   <si>
+    <t>220 (+6)</t>
+  </si>
+  <si>
     <t>t_contract_record</t>
   </si>
   <si>
     <t>239</t>
   </si>
   <si>
+    <t>253 (+14)</t>
+  </si>
+  <si>
     <t>t_contract_template</t>
   </si>
   <si>
@@ -124,52 +199,79 @@
     <t>4</t>
   </si>
   <si>
+    <t>6 (+2)</t>
+  </si>
+  <si>
     <t>t_invoice_record</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>13 (+4)</t>
+  </si>
+  <si>
     <t>t_operate_log</t>
   </si>
   <si>
     <t>1208</t>
   </si>
   <si>
+    <t>1313 (+105)</t>
+  </si>
+  <si>
     <t>t_platform_msg</t>
   </si>
   <si>
     <t>10765</t>
   </si>
   <si>
+    <t>10789 (+24)</t>
+  </si>
+  <si>
     <t>t_public_bidding_record</t>
   </si>
   <si>
     <t>1354</t>
   </si>
   <si>
+    <t>1356 (+2)</t>
+  </si>
+  <si>
     <t>t_region_code</t>
   </si>
   <si>
     <t>3530</t>
   </si>
   <si>
+    <t>3530 (+0)</t>
+  </si>
+  <si>
     <t>t_register_except</t>
   </si>
   <si>
     <t>5449</t>
   </si>
   <si>
+    <t>5449 (+0)</t>
+  </si>
+  <si>
     <t>t_tender_record</t>
   </si>
   <si>
     <t>3810</t>
   </si>
   <si>
+    <t>3817 (+7)</t>
+  </si>
+  <si>
     <t>t_tender_record_invalid</t>
   </si>
   <si>
     <t>3627</t>
+  </si>
+  <si>
+    <t>3637 (+10)</t>
   </si>
 </sst>
 </file>
@@ -177,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,19 +294,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -213,60 +375,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,22 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -312,9 +423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,16 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,13 +459,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,151 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +644,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,17 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -582,15 +684,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +708,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,151 +746,151 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,297 +1220,411 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.9090909090909" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.8181818181818" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tableCount.xlsx
+++ b/tableCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>表名</t>
   </si>
@@ -25,6 +25,12 @@
     <t>2021/06/11</t>
   </si>
   <si>
+    <t>2021/06/16</t>
+  </si>
+  <si>
+    <t>2021/06/17</t>
+  </si>
+  <si>
     <t>jr_attachments</t>
   </si>
   <si>
@@ -34,30 +40,60 @@
     <t>16848 (+16848)</t>
   </si>
   <si>
+    <t>16999 (+151)</t>
+  </si>
+  <si>
+    <t>476 (-16523)</t>
+  </si>
+  <si>
     <t>jr_o_margin_pay_record</t>
   </si>
   <si>
     <t>9367 (+9367)</t>
   </si>
   <si>
+    <t>9389 (+22)</t>
+  </si>
+  <si>
+    <t>77 (-9312)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_detail</t>
   </si>
   <si>
     <t>9166 (+9166)</t>
   </si>
   <si>
+    <t>9175 (+9)</t>
+  </si>
+  <si>
+    <t>53 (-9122)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_record</t>
   </si>
   <si>
     <t>9369 (+9369)</t>
   </si>
   <si>
+    <t>9379 (+10)</t>
+  </si>
+  <si>
+    <t>17 (-9362)</t>
+  </si>
+  <si>
     <t>jr_o_meeting_place_plan</t>
   </si>
   <si>
     <t>321 (+321)</t>
   </si>
   <si>
+    <t>347 (+26)</t>
+  </si>
+  <si>
+    <t>85 (-262)</t>
+  </si>
+  <si>
     <t>jr_o_pbsite_other_situation</t>
   </si>
   <si>
@@ -73,60 +109,120 @@
     <t>1714 (+1714)</t>
   </si>
   <si>
+    <t>1714 (+0)</t>
+  </si>
+  <si>
+    <t>0 (-1714)</t>
+  </si>
+  <si>
     <t>jr_zfcg_correction_item</t>
   </si>
   <si>
     <t>424 (+424)</t>
   </si>
   <si>
+    <t>424 (+0)</t>
+  </si>
+  <si>
+    <t>0 (-424)</t>
+  </si>
+  <si>
     <t>jr_zfcg_evaluation_report</t>
   </si>
   <si>
     <t>127 (+127)</t>
   </si>
   <si>
+    <t>139 (+12)</t>
+  </si>
+  <si>
+    <t>37 (-102)</t>
+  </si>
+  <si>
     <t>jr_zfcg_expert</t>
   </si>
   <si>
     <t>2 (+2)</t>
   </si>
   <si>
+    <t>12 (+10)</t>
+  </si>
+  <si>
+    <t>28 (+16)</t>
+  </si>
+  <si>
     <t>jr_zfcg_notice</t>
   </si>
   <si>
     <t>2240 (+2240)</t>
   </si>
   <si>
+    <t>2265 (+25)</t>
+  </si>
+  <si>
+    <t>86 (-2179)</t>
+  </si>
+  <si>
     <t>jr_zfcg_opening_record</t>
   </si>
   <si>
     <t>2793 (+2793)</t>
   </si>
   <si>
+    <t>2810 (+17)</t>
+  </si>
+  <si>
+    <t>44 (-2766)</t>
+  </si>
+  <si>
     <t>jr_zfcg_project</t>
   </si>
   <si>
     <t>2273 (+2273)</t>
   </si>
   <si>
+    <t>2300 (+27)</t>
+  </si>
+  <si>
+    <t>93 (-2207)</t>
+  </si>
+  <si>
     <t>jr_zfcg_purchase_project</t>
   </si>
   <si>
     <t>2561 (+2561)</t>
   </si>
   <si>
+    <t>2590 (+29)</t>
+  </si>
+  <si>
+    <t>95 (-2495)</t>
+  </si>
+  <si>
     <t>jr_zfcg_result_notice</t>
   </si>
   <si>
     <t>2125 (+2125)</t>
   </si>
   <si>
+    <t>2145 (+20)</t>
+  </si>
+  <si>
+    <t>48 (-2097)</t>
+  </si>
+  <si>
     <t>jr_zfcg_tender_list</t>
   </si>
   <si>
     <t>8526 (+8526)</t>
   </si>
   <si>
+    <t>8565 (+39)</t>
+  </si>
+  <si>
+    <t>108 (-8457)</t>
+  </si>
+  <si>
     <t>jr_zt_fr_base</t>
   </si>
   <si>
@@ -136,6 +232,12 @@
     <t>9380 (+9325)</t>
   </si>
   <si>
+    <t>9380 (+0)</t>
+  </si>
+  <si>
+    <t>9388 (+8)</t>
+  </si>
+  <si>
     <t>jr_zt_zrr_base</t>
   </si>
   <si>
@@ -145,12 +247,21 @@
     <t>0 (-5)</t>
   </si>
   <si>
+    <t>6 (+6)</t>
+  </si>
+  <si>
     <t>t_attachment_record</t>
   </si>
   <si>
     <t>6128 (+6128)</t>
   </si>
   <si>
+    <t>6199 (+71)</t>
+  </si>
+  <si>
+    <t>6372 (+173)</t>
+  </si>
+  <si>
     <t>t_bank_trade_record</t>
   </si>
   <si>
@@ -163,6 +274,12 @@
     <t>3538 (+3)</t>
   </si>
   <si>
+    <t>3539 (+1)</t>
+  </si>
+  <si>
+    <t>3539 (+0)</t>
+  </si>
+  <si>
     <t>t_collateral_record</t>
   </si>
   <si>
@@ -172,6 +289,12 @@
     <t>230 (+4)</t>
   </si>
   <si>
+    <t>235 (+5)</t>
+  </si>
+  <si>
+    <t>244 (+9)</t>
+  </si>
+  <si>
     <t>t_collateral_record_invalid</t>
   </si>
   <si>
@@ -181,6 +304,12 @@
     <t>220 (+6)</t>
   </si>
   <si>
+    <t>224 (+4)</t>
+  </si>
+  <si>
+    <t>224 (+0)</t>
+  </si>
+  <si>
     <t>t_contract_record</t>
   </si>
   <si>
@@ -190,6 +319,12 @@
     <t>253 (+14)</t>
   </si>
   <si>
+    <t>268 (+15)</t>
+  </si>
+  <si>
+    <t>275 (+7)</t>
+  </si>
+  <si>
     <t>t_contract_template</t>
   </si>
   <si>
@@ -202,6 +337,12 @@
     <t>6 (+2)</t>
   </si>
   <si>
+    <t>8 (+2)</t>
+  </si>
+  <si>
+    <t>8 (+0)</t>
+  </si>
+  <si>
     <t>t_invoice_record</t>
   </si>
   <si>
@@ -211,6 +352,12 @@
     <t>13 (+4)</t>
   </si>
   <si>
+    <t>15 (+2)</t>
+  </si>
+  <si>
+    <t>15 (+0)</t>
+  </si>
+  <si>
     <t>t_operate_log</t>
   </si>
   <si>
@@ -220,6 +367,12 @@
     <t>1313 (+105)</t>
   </si>
   <si>
+    <t>1343 (+30)</t>
+  </si>
+  <si>
+    <t>1343 (+0)</t>
+  </si>
+  <si>
     <t>t_platform_msg</t>
   </si>
   <si>
@@ -229,6 +382,12 @@
     <t>10789 (+24)</t>
   </si>
   <si>
+    <t>10806 (+17)</t>
+  </si>
+  <si>
+    <t>10813 (+7)</t>
+  </si>
+  <si>
     <t>t_public_bidding_record</t>
   </si>
   <si>
@@ -238,6 +397,12 @@
     <t>1356 (+2)</t>
   </si>
   <si>
+    <t>1359 (+3)</t>
+  </si>
+  <si>
+    <t>1362 (+3)</t>
+  </si>
+  <si>
     <t>t_region_code</t>
   </si>
   <si>
@@ -256,6 +421,12 @@
     <t>5449 (+0)</t>
   </si>
   <si>
+    <t>t_sequences</t>
+  </si>
+  <si>
+    <t>1 (+1)</t>
+  </si>
+  <si>
     <t>t_tender_record</t>
   </si>
   <si>
@@ -265,6 +436,12 @@
     <t>3817 (+7)</t>
   </si>
   <si>
+    <t>3823 (+6)</t>
+  </si>
+  <si>
+    <t>3832 (+9)</t>
+  </si>
+  <si>
     <t>t_tender_record_invalid</t>
   </si>
   <si>
@@ -272,6 +449,12 @@
   </si>
   <si>
     <t>3637 (+10)</t>
+  </si>
+  <si>
+    <t>3642 (+5)</t>
+  </si>
+  <si>
+    <t>3642 (+0)</t>
   </si>
 </sst>
 </file>
@@ -279,9 +462,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -294,31 +477,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,16 +490,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,11 +521,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,26 +573,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,21 +604,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -437,8 +611,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,25 +636,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,73 +792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,79 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,17 +827,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,15 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -708,6 +871,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,162 +927,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1220,20 +1403,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.9090909090909" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,388 +1428,613 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/tableCount.xlsx
+++ b/tableCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
   <si>
     <t>表名</t>
   </si>
@@ -31,6 +31,9 @@
     <t>2021/06/17</t>
   </si>
   <si>
+    <t>2021/06/22</t>
+  </si>
+  <si>
     <t>jr_attachments</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>476 (-16523)</t>
   </si>
   <si>
+    <t>523 (+47)</t>
+  </si>
+  <si>
     <t>jr_o_margin_pay_record</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>77 (-9312)</t>
   </si>
   <si>
+    <t>201 (+124)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_detail</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>53 (-9122)</t>
   </si>
   <si>
+    <t>54 (+1)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_record</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
     <t>17 (-9362)</t>
   </si>
   <si>
+    <t>18 (+1)</t>
+  </si>
+  <si>
     <t>jr_o_meeting_place_plan</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>85 (-262)</t>
   </si>
   <si>
+    <t>95 (+10)</t>
+  </si>
+  <si>
     <t>jr_o_pbsite_other_situation</t>
   </si>
   <si>
@@ -139,6 +157,9 @@
     <t>37 (-102)</t>
   </si>
   <si>
+    <t>41 (+4)</t>
+  </si>
+  <si>
     <t>jr_zfcg_expert</t>
   </si>
   <si>
@@ -151,6 +172,9 @@
     <t>28 (+16)</t>
   </si>
   <si>
+    <t>31 (+3)</t>
+  </si>
+  <si>
     <t>jr_zfcg_notice</t>
   </si>
   <si>
@@ -163,6 +187,9 @@
     <t>86 (-2179)</t>
   </si>
   <si>
+    <t>96 (+10)</t>
+  </si>
+  <si>
     <t>jr_zfcg_opening_record</t>
   </si>
   <si>
@@ -175,6 +202,9 @@
     <t>44 (-2766)</t>
   </si>
   <si>
+    <t>48 (+4)</t>
+  </si>
+  <si>
     <t>jr_zfcg_project</t>
   </si>
   <si>
@@ -187,6 +217,9 @@
     <t>93 (-2207)</t>
   </si>
   <si>
+    <t>102 (+9)</t>
+  </si>
+  <si>
     <t>jr_zfcg_purchase_project</t>
   </si>
   <si>
@@ -199,6 +232,9 @@
     <t>95 (-2495)</t>
   </si>
   <si>
+    <t>104 (+9)</t>
+  </si>
+  <si>
     <t>jr_zfcg_result_notice</t>
   </si>
   <si>
@@ -211,6 +247,9 @@
     <t>48 (-2097)</t>
   </si>
   <si>
+    <t>51 (+3)</t>
+  </si>
+  <si>
     <t>jr_zfcg_tender_list</t>
   </si>
   <si>
@@ -223,6 +262,9 @@
     <t>108 (-8457)</t>
   </si>
   <si>
+    <t>117 (+9)</t>
+  </si>
+  <si>
     <t>jr_zt_fr_base</t>
   </si>
   <si>
@@ -238,6 +280,9 @@
     <t>9388 (+8)</t>
   </si>
   <si>
+    <t>9388 (+0)</t>
+  </si>
+  <si>
     <t>jr_zt_zrr_base</t>
   </si>
   <si>
@@ -250,6 +295,9 @@
     <t>6 (+6)</t>
   </si>
   <si>
+    <t>6 (+0)</t>
+  </si>
+  <si>
     <t>t_attachment_record</t>
   </si>
   <si>
@@ -262,6 +310,9 @@
     <t>6372 (+173)</t>
   </si>
   <si>
+    <t>6397 (+25)</t>
+  </si>
+  <si>
     <t>t_bank_trade_record</t>
   </si>
   <si>
@@ -280,6 +331,9 @@
     <t>3539 (+0)</t>
   </si>
   <si>
+    <t>3547 (+8)</t>
+  </si>
+  <si>
     <t>t_collateral_record</t>
   </si>
   <si>
@@ -295,6 +349,9 @@
     <t>244 (+9)</t>
   </si>
   <si>
+    <t>263 (+19)</t>
+  </si>
+  <si>
     <t>t_collateral_record_invalid</t>
   </si>
   <si>
@@ -310,6 +367,9 @@
     <t>224 (+0)</t>
   </si>
   <si>
+    <t>238 (+14)</t>
+  </si>
+  <si>
     <t>t_contract_record</t>
   </si>
   <si>
@@ -325,9 +385,18 @@
     <t>275 (+7)</t>
   </si>
   <si>
+    <t>286 (+11)</t>
+  </si>
+  <si>
     <t>t_contract_template</t>
   </si>
   <si>
+    <t>t_data_syn_param</t>
+  </si>
+  <si>
+    <t>19 (+19)</t>
+  </si>
+  <si>
     <t>t_evaluation_record</t>
   </si>
   <si>
@@ -358,6 +427,9 @@
     <t>15 (+0)</t>
   </si>
   <si>
+    <t>21 (+6)</t>
+  </si>
+  <si>
     <t>t_operate_log</t>
   </si>
   <si>
@@ -388,6 +460,9 @@
     <t>10813 (+7)</t>
   </si>
   <si>
+    <t>10854 (+41)</t>
+  </si>
+  <si>
     <t>t_public_bidding_record</t>
   </si>
   <si>
@@ -403,6 +478,9 @@
     <t>1362 (+3)</t>
   </si>
   <si>
+    <t>1372 (+10)</t>
+  </si>
+  <si>
     <t>t_region_code</t>
   </si>
   <si>
@@ -421,12 +499,18 @@
     <t>5449 (+0)</t>
   </si>
   <si>
+    <t>5450 (+1)</t>
+  </si>
+  <si>
     <t>t_sequences</t>
   </si>
   <si>
     <t>1 (+1)</t>
   </si>
   <si>
+    <t>1 (+0)</t>
+  </si>
+  <si>
     <t>t_tender_record</t>
   </si>
   <si>
@@ -442,6 +526,9 @@
     <t>3832 (+9)</t>
   </si>
   <si>
+    <t>3866 (+34)</t>
+  </si>
+  <si>
     <t>t_tender_record_invalid</t>
   </si>
   <si>
@@ -455,6 +542,9 @@
   </si>
   <si>
     <t>3642 (+0)</t>
+  </si>
+  <si>
+    <t>3662 (+20)</t>
   </si>
 </sst>
 </file>
@@ -477,51 +567,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -536,7 +581,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,8 +616,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,19 +639,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,8 +679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,9 +695,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,187 +726,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,36 +917,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -878,8 +938,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,8 +947,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,22 +1013,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,148 +1022,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,22 +1493,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="30.9090909090909" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.8181818181818" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,607 +1525,727 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>136</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>153</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35"/>
+        <v>157</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
       <c r="E35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>140</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36"/>
       <c r="E36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/tableCount.xlsx
+++ b/tableCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="234">
   <si>
     <t>表名</t>
   </si>
@@ -34,6 +34,12 @@
     <t>2021/06/22</t>
   </si>
   <si>
+    <t>2021/06/23</t>
+  </si>
+  <si>
+    <t>2021/06/24</t>
+  </si>
+  <si>
     <t>jr_attachments</t>
   </si>
   <si>
@@ -52,6 +58,12 @@
     <t>523 (+47)</t>
   </si>
   <si>
+    <t>531 (+8)</t>
+  </si>
+  <si>
+    <t>98082 (+97551)</t>
+  </si>
+  <si>
     <t>jr_o_margin_pay_record</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>201 (+124)</t>
   </si>
   <si>
+    <t>201 (+0)</t>
+  </si>
+  <si>
+    <t>31470 (+31269)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_detail</t>
   </si>
   <si>
@@ -82,6 +100,12 @@
     <t>54 (+1)</t>
   </si>
   <si>
+    <t>55 (+1)</t>
+  </si>
+  <si>
+    <t>24065 (+24010)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_record</t>
   </si>
   <si>
@@ -97,6 +121,12 @@
     <t>18 (+1)</t>
   </si>
   <si>
+    <t>19 (+1)</t>
+  </si>
+  <si>
+    <t>24071 (+24052)</t>
+  </si>
+  <si>
     <t>jr_o_meeting_place_plan</t>
   </si>
   <si>
@@ -112,6 +142,12 @@
     <t>95 (+10)</t>
   </si>
   <si>
+    <t>96 (+1)</t>
+  </si>
+  <si>
+    <t>657 (+561)</t>
+  </si>
+  <si>
     <t>jr_o_pbsite_other_situation</t>
   </si>
   <si>
@@ -133,6 +169,9 @@
     <t>0 (-1714)</t>
   </si>
   <si>
+    <t>4326 (+4326)</t>
+  </si>
+  <si>
     <t>jr_zfcg_correction_item</t>
   </si>
   <si>
@@ -145,6 +184,9 @@
     <t>0 (-424)</t>
   </si>
   <si>
+    <t>1140 (+1140)</t>
+  </si>
+  <si>
     <t>jr_zfcg_evaluation_report</t>
   </si>
   <si>
@@ -160,6 +202,12 @@
     <t>41 (+4)</t>
   </si>
   <si>
+    <t>42 (+1)</t>
+  </si>
+  <si>
+    <t>363 (+321)</t>
+  </si>
+  <si>
     <t>jr_zfcg_expert</t>
   </si>
   <si>
@@ -175,6 +223,12 @@
     <t>31 (+3)</t>
   </si>
   <si>
+    <t>31 (+0)</t>
+  </si>
+  <si>
+    <t>322 (+291)</t>
+  </si>
+  <si>
     <t>jr_zfcg_notice</t>
   </si>
   <si>
@@ -190,6 +244,12 @@
     <t>96 (+10)</t>
   </si>
   <si>
+    <t>97 (+1)</t>
+  </si>
+  <si>
+    <t>5970 (+5873)</t>
+  </si>
+  <si>
     <t>jr_zfcg_opening_record</t>
   </si>
   <si>
@@ -205,6 +265,12 @@
     <t>48 (+4)</t>
   </si>
   <si>
+    <t>48 (+0)</t>
+  </si>
+  <si>
+    <t>3030 (+2982)</t>
+  </si>
+  <si>
     <t>jr_zfcg_project</t>
   </si>
   <si>
@@ -220,6 +286,12 @@
     <t>102 (+9)</t>
   </si>
   <si>
+    <t>103 (+1)</t>
+  </si>
+  <si>
+    <t>6331 (+6228)</t>
+  </si>
+  <si>
     <t>jr_zfcg_purchase_project</t>
   </si>
   <si>
@@ -235,6 +307,12 @@
     <t>104 (+9)</t>
   </si>
   <si>
+    <t>105 (+1)</t>
+  </si>
+  <si>
+    <t>7383 (+7278)</t>
+  </si>
+  <si>
     <t>jr_zfcg_result_notice</t>
   </si>
   <si>
@@ -250,6 +328,12 @@
     <t>51 (+3)</t>
   </si>
   <si>
+    <t>52 (+1)</t>
+  </si>
+  <si>
+    <t>5312 (+5260)</t>
+  </si>
+  <si>
     <t>jr_zfcg_tender_list</t>
   </si>
   <si>
@@ -265,6 +349,12 @@
     <t>117 (+9)</t>
   </si>
   <si>
+    <t>117 (+0)</t>
+  </si>
+  <si>
+    <t>18321 (+18204)</t>
+  </si>
+  <si>
     <t>jr_zt_fr_base</t>
   </si>
   <si>
@@ -283,6 +373,9 @@
     <t>9388 (+0)</t>
   </si>
   <si>
+    <t>20623 (+11235)</t>
+  </si>
+  <si>
     <t>jr_zt_zrr_base</t>
   </si>
   <si>
@@ -298,6 +391,9 @@
     <t>6 (+0)</t>
   </si>
   <si>
+    <t>14 (+8)</t>
+  </si>
+  <si>
     <t>t_attachment_record</t>
   </si>
   <si>
@@ -313,6 +409,12 @@
     <t>6397 (+25)</t>
   </si>
   <si>
+    <t>6401 (+4)</t>
+  </si>
+  <si>
+    <t>26740 (+20339)</t>
+  </si>
+  <si>
     <t>t_bank_trade_record</t>
   </si>
   <si>
@@ -334,6 +436,12 @@
     <t>3547 (+8)</t>
   </si>
   <si>
+    <t>3547 (+0)</t>
+  </si>
+  <si>
+    <t>20696 (+17149)</t>
+  </si>
+  <si>
     <t>t_collateral_record</t>
   </si>
   <si>
@@ -352,6 +460,12 @@
     <t>263 (+19)</t>
   </si>
   <si>
+    <t>265 (+2)</t>
+  </si>
+  <si>
+    <t>547 (+282)</t>
+  </si>
+  <si>
     <t>t_collateral_record_invalid</t>
   </si>
   <si>
@@ -370,6 +484,12 @@
     <t>238 (+14)</t>
   </si>
   <si>
+    <t>242 (+4)</t>
+  </si>
+  <si>
+    <t>435 (+193)</t>
+  </si>
+  <si>
     <t>t_contract_record</t>
   </si>
   <si>
@@ -388,6 +508,12 @@
     <t>286 (+11)</t>
   </si>
   <si>
+    <t>288 (+2)</t>
+  </si>
+  <si>
+    <t>14 (-274)</t>
+  </si>
+  <si>
     <t>t_contract_template</t>
   </si>
   <si>
@@ -397,6 +523,9 @@
     <t>19 (+19)</t>
   </si>
   <si>
+    <t>19 (+0)</t>
+  </si>
+  <si>
     <t>t_evaluation_record</t>
   </si>
   <si>
@@ -412,6 +541,9 @@
     <t>8 (+0)</t>
   </si>
   <si>
+    <t>1 (-7)</t>
+  </si>
+  <si>
     <t>t_invoice_record</t>
   </si>
   <si>
@@ -430,6 +562,12 @@
     <t>21 (+6)</t>
   </si>
   <si>
+    <t>22 (+1)</t>
+  </si>
+  <si>
+    <t>1 (-21)</t>
+  </si>
+  <si>
     <t>t_operate_log</t>
   </si>
   <si>
@@ -445,6 +583,9 @@
     <t>1343 (+0)</t>
   </si>
   <si>
+    <t>0 (-1343)</t>
+  </si>
+  <si>
     <t>t_platform_msg</t>
   </si>
   <si>
@@ -463,6 +604,12 @@
     <t>10854 (+41)</t>
   </si>
   <si>
+    <t>10858 (+4)</t>
+  </si>
+  <si>
+    <t>19 (-10839)</t>
+  </si>
+  <si>
     <t>t_public_bidding_record</t>
   </si>
   <si>
@@ -481,6 +628,12 @@
     <t>1372 (+10)</t>
   </si>
   <si>
+    <t>1373 (+1)</t>
+  </si>
+  <si>
+    <t>6692 (+5319)</t>
+  </si>
+  <si>
     <t>t_region_code</t>
   </si>
   <si>
@@ -502,6 +655,12 @@
     <t>5450 (+1)</t>
   </si>
   <si>
+    <t>5450 (+0)</t>
+  </si>
+  <si>
+    <t>6118 (+668)</t>
+  </si>
+  <si>
     <t>t_sequences</t>
   </si>
   <si>
@@ -529,6 +688,12 @@
     <t>3866 (+34)</t>
   </si>
   <si>
+    <t>3869 (+3)</t>
+  </si>
+  <si>
+    <t>21245 (+17376)</t>
+  </si>
+  <si>
     <t>t_tender_record_invalid</t>
   </si>
   <si>
@@ -545,6 +710,12 @@
   </si>
   <si>
     <t>3662 (+20)</t>
+  </si>
+  <si>
+    <t>3669 (+7)</t>
+  </si>
+  <si>
+    <t>17645 (+13976)</t>
   </si>
 </sst>
 </file>
@@ -552,10 +723,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -567,7 +738,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,6 +759,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -588,14 +773,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,54 +811,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,10 +834,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,15 +849,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +859,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,175 +897,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,6 +1088,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -938,8 +1124,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,22 +1134,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,20 +1182,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,148 +1193,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,23 +1664,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="30.9090909090909" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.8181818181818" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.2727272727273" style="1" customWidth="1"/>
     <col min="4" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="11.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,724 +1701,952 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>147</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>155</v>
+      </c>
+      <c r="G25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>168</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>195</v>
+      </c>
+      <c r="G32" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>203</v>
+      </c>
+      <c r="G33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>212</v>
+      </c>
+      <c r="G35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G36" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>223</v>
+      </c>
+      <c r="G37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
+        <v>231</v>
+      </c>
+      <c r="G38" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/tableCount.xlsx
+++ b/tableCount.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="295">
   <si>
     <t>表名</t>
   </si>
   <si>
+    <t>表注释</t>
+  </si>
+  <si>
     <t>2021/06/10</t>
   </si>
   <si>
@@ -40,9 +43,15 @@
     <t>2021/06/24</t>
   </si>
   <si>
+    <t>2021/06/25</t>
+  </si>
+  <si>
     <t>jr_attachments</t>
   </si>
   <si>
+    <t>附件集</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -61,12 +70,18 @@
     <t>531 (+8)</t>
   </si>
   <si>
-    <t>98082 (+97551)</t>
+    <t>98086 (+97555)</t>
+  </si>
+  <si>
+    <t>98094 (+8)</t>
   </si>
   <si>
     <t>jr_o_margin_pay_record</t>
   </si>
   <si>
+    <t>保证金保函缴纳记录表</t>
+  </si>
+  <si>
     <t>9367 (+9367)</t>
   </si>
   <si>
@@ -82,12 +97,18 @@
     <t>201 (+0)</t>
   </si>
   <si>
-    <t>31470 (+31269)</t>
+    <t>31471 (+31270)</t>
+  </si>
+  <si>
+    <t>31472 (+1)</t>
   </si>
   <si>
     <t>jr_o_margin_tk_detail</t>
   </si>
   <si>
+    <t>保证金退款明细查询</t>
+  </si>
+  <si>
     <t>9166 (+9166)</t>
   </si>
   <si>
@@ -106,9 +127,15 @@
     <t>24065 (+24010)</t>
   </si>
   <si>
+    <t>24065 (+0)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_record</t>
   </si>
   <si>
+    <t>保证金退款情况</t>
+  </si>
+  <si>
     <t>9369 (+9369)</t>
   </si>
   <si>
@@ -127,9 +154,15 @@
     <t>24071 (+24052)</t>
   </si>
   <si>
+    <t>24071 (+0)</t>
+  </si>
+  <si>
     <t>jr_o_meeting_place_plan</t>
   </si>
   <si>
+    <t>场地预约</t>
+  </si>
+  <si>
     <t>321 (+321)</t>
   </si>
   <si>
@@ -145,21 +178,33 @@
     <t>96 (+1)</t>
   </si>
   <si>
-    <t>657 (+561)</t>
+    <t>658 (+562)</t>
+  </si>
+  <si>
+    <t>660 (+2)</t>
   </si>
   <si>
     <t>jr_o_pbsite_other_situation</t>
   </si>
   <si>
+    <t>评标现场其他特殊情况汇总</t>
+  </si>
+  <si>
     <t>0 (+0)</t>
   </si>
   <si>
     <t>jr_o_tenders</t>
   </si>
   <si>
+    <t>参与开标的投标单位</t>
+  </si>
+  <si>
     <t>jr_zfcg_contract</t>
   </si>
   <si>
+    <t>采购合同</t>
+  </si>
+  <si>
     <t>1714 (+1714)</t>
   </si>
   <si>
@@ -172,9 +217,15 @@
     <t>4326 (+4326)</t>
   </si>
   <si>
+    <t>4326 (+0)</t>
+  </si>
+  <si>
     <t>jr_zfcg_correction_item</t>
   </si>
   <si>
+    <t>更正事项</t>
+  </si>
+  <si>
     <t>424 (+424)</t>
   </si>
   <si>
@@ -187,9 +238,15 @@
     <t>1140 (+1140)</t>
   </si>
   <si>
+    <t>1140 (+0)</t>
+  </si>
+  <si>
     <t>jr_zfcg_evaluation_report</t>
   </si>
   <si>
+    <t>评标报告</t>
+  </si>
+  <si>
     <t>127 (+127)</t>
   </si>
   <si>
@@ -208,9 +265,15 @@
     <t>363 (+321)</t>
   </si>
   <si>
+    <t>364 (+1)</t>
+  </si>
+  <si>
     <t>jr_zfcg_expert</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2 (+2)</t>
   </si>
   <si>
@@ -229,9 +292,15 @@
     <t>322 (+291)</t>
   </si>
   <si>
+    <t>322 (+0)</t>
+  </si>
+  <si>
     <t>jr_zfcg_notice</t>
   </si>
   <si>
+    <t>采购（资格预审）公告</t>
+  </si>
+  <si>
     <t>2240 (+2240)</t>
   </si>
   <si>
@@ -247,12 +316,18 @@
     <t>97 (+1)</t>
   </si>
   <si>
-    <t>5970 (+5873)</t>
+    <t>5971 (+5874)</t>
+  </si>
+  <si>
+    <t>5973 (+2)</t>
   </si>
   <si>
     <t>jr_zfcg_opening_record</t>
   </si>
   <si>
+    <t>政府采购开标记录</t>
+  </si>
+  <si>
     <t>2793 (+2793)</t>
   </si>
   <si>
@@ -271,6 +346,9 @@
     <t>3030 (+2982)</t>
   </si>
   <si>
+    <t>3030 (+0)</t>
+  </si>
+  <si>
     <t>jr_zfcg_project</t>
   </si>
   <si>
@@ -289,12 +367,18 @@
     <t>103 (+1)</t>
   </si>
   <si>
-    <t>6331 (+6228)</t>
+    <t>6332 (+6229)</t>
+  </si>
+  <si>
+    <t>6333 (+1)</t>
   </si>
   <si>
     <t>jr_zfcg_purchase_project</t>
   </si>
   <si>
+    <t>采购项目</t>
+  </si>
+  <si>
     <t>2561 (+2561)</t>
   </si>
   <si>
@@ -310,12 +394,18 @@
     <t>105 (+1)</t>
   </si>
   <si>
-    <t>7383 (+7278)</t>
+    <t>7384 (+7279)</t>
+  </si>
+  <si>
+    <t>7386 (+2)</t>
   </si>
   <si>
     <t>jr_zfcg_result_notice</t>
   </si>
   <si>
+    <t>中标（成交）结果公告</t>
+  </si>
+  <si>
     <t>2125 (+2125)</t>
   </si>
   <si>
@@ -334,9 +424,15 @@
     <t>5312 (+5260)</t>
   </si>
   <si>
+    <t>5313 (+1)</t>
+  </si>
+  <si>
     <t>jr_zfcg_tender_list</t>
   </si>
   <si>
+    <t>供应商名单</t>
+  </si>
+  <si>
     <t>8526 (+8526)</t>
   </si>
   <si>
@@ -355,9 +451,15 @@
     <t>18321 (+18204)</t>
   </si>
   <si>
+    <t>18321 (+0)</t>
+  </si>
+  <si>
     <t>jr_zt_fr_base</t>
   </si>
   <si>
+    <t>法人基本信息</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
@@ -376,9 +478,15 @@
     <t>20623 (+11235)</t>
   </si>
   <si>
+    <t>20623 (+0)</t>
+  </si>
+  <si>
     <t>jr_zt_zrr_base</t>
   </si>
   <si>
+    <t>自然人基本信息</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -394,9 +502,15 @@
     <t>14 (+8)</t>
   </si>
   <si>
+    <t>14 (+0)</t>
+  </si>
+  <si>
     <t>t_attachment_record</t>
   </si>
   <si>
+    <t>附件记录表</t>
+  </si>
+  <si>
     <t>6128 (+6128)</t>
   </si>
   <si>
@@ -412,15 +526,24 @@
     <t>6401 (+4)</t>
   </si>
   <si>
-    <t>26740 (+20339)</t>
+    <t>26742 (+20341)</t>
+  </si>
+  <si>
+    <t>26747 (+5)</t>
   </si>
   <si>
     <t>t_bank_trade_record</t>
   </si>
   <si>
+    <t>银行交易记录表</t>
+  </si>
+  <si>
     <t>t_bzj_trade_record</t>
   </si>
   <si>
+    <t>保证金交易记录表</t>
+  </si>
+  <si>
     <t>3535</t>
   </si>
   <si>
@@ -439,12 +562,18 @@
     <t>3547 (+0)</t>
   </si>
   <si>
-    <t>20696 (+17149)</t>
+    <t>20697 (+17150)</t>
+  </si>
+  <si>
+    <t>20697 (+0)</t>
   </si>
   <si>
     <t>t_collateral_record</t>
   </si>
   <si>
+    <t>保函记录表</t>
+  </si>
+  <si>
     <t>226</t>
   </si>
   <si>
@@ -463,7 +592,10 @@
     <t>265 (+2)</t>
   </si>
   <si>
-    <t>547 (+282)</t>
+    <t>549 (+284)</t>
+  </si>
+  <si>
+    <t>554 (+5)</t>
   </si>
   <si>
     <t>t_collateral_record_invalid</t>
@@ -490,9 +622,15 @@
     <t>435 (+193)</t>
   </si>
   <si>
+    <t>464 (+29)</t>
+  </si>
+  <si>
     <t>t_contract_record</t>
   </si>
   <si>
+    <t>合同记录表</t>
+  </si>
+  <si>
     <t>239</t>
   </si>
   <si>
@@ -511,7 +649,10 @@
     <t>288 (+2)</t>
   </si>
   <si>
-    <t>14 (-274)</t>
+    <t>16 (-272)</t>
+  </si>
+  <si>
+    <t>27 (+11)</t>
   </si>
   <si>
     <t>t_contract_template</t>
@@ -544,9 +685,15 @@
     <t>1 (-7)</t>
   </si>
   <si>
+    <t>1 (+0)</t>
+  </si>
+  <si>
     <t>t_invoice_record</t>
   </si>
   <si>
+    <t>发票开具记录</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -568,9 +715,15 @@
     <t>1 (-21)</t>
   </si>
   <si>
+    <t>2 (+1)</t>
+  </si>
+  <si>
     <t>t_operate_log</t>
   </si>
   <si>
+    <t>操作日志表</t>
+  </si>
+  <si>
     <t>1208</t>
   </si>
   <si>
@@ -589,6 +742,9 @@
     <t>t_platform_msg</t>
   </si>
   <si>
+    <t>平台消息表</t>
+  </si>
+  <si>
     <t>10765</t>
   </si>
   <si>
@@ -607,7 +763,10 @@
     <t>10858 (+4)</t>
   </si>
   <si>
-    <t>19 (-10839)</t>
+    <t>22 (-10836)</t>
+  </si>
+  <si>
+    <t>28 (+6)</t>
   </si>
   <si>
     <t>t_public_bidding_record</t>
@@ -631,12 +790,24 @@
     <t>1373 (+1)</t>
   </si>
   <si>
-    <t>6692 (+5319)</t>
+    <t>6693 (+5320)</t>
+  </si>
+  <si>
+    <t>6695 (+2)</t>
+  </si>
+  <si>
+    <t>t_public_bidding_record_bak</t>
+  </si>
+  <si>
+    <t>6693 (+6693)</t>
   </si>
   <si>
     <t>t_region_code</t>
   </si>
   <si>
+    <t>GB/T 2260-2007《中华人民共和国行政区划代码》</t>
+  </si>
+  <si>
     <t>3530</t>
   </si>
   <si>
@@ -646,6 +817,9 @@
     <t>t_register_except</t>
   </si>
   <si>
+    <t>注册异常记录表</t>
+  </si>
+  <si>
     <t>5449</t>
   </si>
   <si>
@@ -661,18 +835,21 @@
     <t>6118 (+668)</t>
   </si>
   <si>
+    <t>6118 (+0)</t>
+  </si>
+  <si>
     <t>t_sequences</t>
   </si>
   <si>
     <t>1 (+1)</t>
   </si>
   <si>
-    <t>1 (+0)</t>
-  </si>
-  <si>
     <t>t_tender_record</t>
   </si>
   <si>
+    <t>投标记录表</t>
+  </si>
+  <si>
     <t>3810</t>
   </si>
   <si>
@@ -691,7 +868,10 @@
     <t>3869 (+3)</t>
   </si>
   <si>
-    <t>21245 (+17376)</t>
+    <t>21250 (+17381)</t>
+  </si>
+  <si>
+    <t>21255 (+5)</t>
   </si>
   <si>
     <t>t_tender_record_invalid</t>
@@ -716,6 +896,9 @@
   </si>
   <si>
     <t>17645 (+13976)</t>
+  </si>
+  <si>
+    <t>18238 (+593)</t>
   </si>
 </sst>
 </file>
@@ -723,10 +906,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -738,7 +921,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,52 +963,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,9 +1018,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,6 +1055,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -894,6 +1077,108 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -903,13 +1188,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +1230,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,139 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,17 +1322,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1188,6 +1360,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1196,10 +1379,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,133 +1391,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1664,32 +1847,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="30.9090909090909" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.2727272727273" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="14.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8181818181818" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1707,946 +1892,1186 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21"/>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
+        <v>184</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>152</v>
+        <v>194</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" t="s">
-        <v>168</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28"/>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="H28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" t="s">
-        <v>172</v>
+        <v>217</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" t="s">
-        <v>178</v>
+        <v>224</v>
+      </c>
+      <c r="B30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>186</v>
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" t="s">
-        <v>192</v>
+        <v>241</v>
+      </c>
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="H32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" t="s">
-        <v>200</v>
+        <v>251</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>257</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" t="s">
-        <v>211</v>
+        <v>262</v>
+      </c>
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="H35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>215</v>
-      </c>
-      <c r="D36"/>
+        <v>265</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" t="s">
+        <v>269</v>
+      </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="H36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" t="s">
-        <v>222</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="I36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37"/>
       <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
         <v>223</v>
       </c>
-      <c r="G37" t="s">
-        <v>224</v>
-      </c>
       <c r="H37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I37" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C38" t="s">
-        <v>228</v>
+        <v>276</v>
+      </c>
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="H38" t="s">
-        <v>233</v>
+        <v>283</v>
+      </c>
+      <c r="I38" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" t="s">
+        <v>292</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/tableCount.xlsx
+++ b/tableCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="330">
   <si>
     <t>表名</t>
   </si>
@@ -46,6 +46,9 @@
     <t>2021/06/25</t>
   </si>
   <si>
+    <t>2021/06/28</t>
+  </si>
+  <si>
     <t>jr_attachments</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>98094 (+8)</t>
   </si>
   <si>
+    <t>98101 (+7)</t>
+  </si>
+  <si>
     <t>jr_o_margin_pay_record</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>31472 (+1)</t>
   </si>
   <si>
+    <t>31484 (+12)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_detail</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>24065 (+0)</t>
   </si>
   <si>
+    <t>24066 (+1)</t>
+  </si>
+  <si>
     <t>jr_o_margin_tk_record</t>
   </si>
   <si>
@@ -157,6 +169,9 @@
     <t>24071 (+0)</t>
   </si>
   <si>
+    <t>24072 (+1)</t>
+  </si>
+  <si>
     <t>jr_o_meeting_place_plan</t>
   </si>
   <si>
@@ -184,6 +199,9 @@
     <t>660 (+2)</t>
   </si>
   <si>
+    <t>661 (+1)</t>
+  </si>
+  <si>
     <t>jr_o_pbsite_other_situation</t>
   </si>
   <si>
@@ -268,6 +286,9 @@
     <t>364 (+1)</t>
   </si>
   <si>
+    <t>365 (+1)</t>
+  </si>
+  <si>
     <t>jr_zfcg_expert</t>
   </si>
   <si>
@@ -295,6 +316,9 @@
     <t>322 (+0)</t>
   </si>
   <si>
+    <t>326 (+4)</t>
+  </si>
+  <si>
     <t>jr_zfcg_notice</t>
   </si>
   <si>
@@ -322,6 +346,9 @@
     <t>5973 (+2)</t>
   </si>
   <si>
+    <t>5974 (+1)</t>
+  </si>
+  <si>
     <t>jr_zfcg_opening_record</t>
   </si>
   <si>
@@ -349,6 +376,9 @@
     <t>3030 (+0)</t>
   </si>
   <si>
+    <t>3035 (+5)</t>
+  </si>
+  <si>
     <t>jr_zfcg_project</t>
   </si>
   <si>
@@ -373,6 +403,9 @@
     <t>6333 (+1)</t>
   </si>
   <si>
+    <t>6334 (+1)</t>
+  </si>
+  <si>
     <t>jr_zfcg_purchase_project</t>
   </si>
   <si>
@@ -400,6 +433,9 @@
     <t>7386 (+2)</t>
   </si>
   <si>
+    <t>7387 (+1)</t>
+  </si>
+  <si>
     <t>jr_zfcg_result_notice</t>
   </si>
   <si>
@@ -427,6 +463,9 @@
     <t>5313 (+1)</t>
   </si>
   <si>
+    <t>5314 (+1)</t>
+  </si>
+  <si>
     <t>jr_zfcg_tender_list</t>
   </si>
   <si>
@@ -454,6 +493,9 @@
     <t>18321 (+0)</t>
   </si>
   <si>
+    <t>18334 (+13)</t>
+  </si>
+  <si>
     <t>jr_zt_fr_base</t>
   </si>
   <si>
@@ -532,6 +574,9 @@
     <t>26747 (+5)</t>
   </si>
   <si>
+    <t>26751 (+4)</t>
+  </si>
+  <si>
     <t>t_bank_trade_record</t>
   </si>
   <si>
@@ -568,6 +613,9 @@
     <t>20697 (+0)</t>
   </si>
   <si>
+    <t>20703 (+6)</t>
+  </si>
+  <si>
     <t>t_collateral_record</t>
   </si>
   <si>
@@ -598,6 +646,15 @@
     <t>554 (+5)</t>
   </si>
   <si>
+    <t>557 (+3)</t>
+  </si>
+  <si>
+    <t>t_collateral_record_0626</t>
+  </si>
+  <si>
+    <t>557 (+557)</t>
+  </si>
+  <si>
     <t>t_collateral_record_invalid</t>
   </si>
   <si>
@@ -625,6 +682,15 @@
     <t>464 (+29)</t>
   </si>
   <si>
+    <t>471 (+7)</t>
+  </si>
+  <si>
+    <t>t_collateral_record_invalid_0626</t>
+  </si>
+  <si>
+    <t>466 (+466)</t>
+  </si>
+  <si>
     <t>t_contract_record</t>
   </si>
   <si>
@@ -655,6 +721,9 @@
     <t>27 (+11)</t>
   </si>
   <si>
+    <t>31 (+4)</t>
+  </si>
+  <si>
     <t>t_contract_template</t>
   </si>
   <si>
@@ -688,6 +757,9 @@
     <t>1 (+0)</t>
   </si>
   <si>
+    <t>2 (+1)</t>
+  </si>
+  <si>
     <t>t_invoice_record</t>
   </si>
   <si>
@@ -715,7 +787,7 @@
     <t>1 (-21)</t>
   </si>
   <si>
-    <t>2 (+1)</t>
+    <t>3 (+1)</t>
   </si>
   <si>
     <t>t_operate_log</t>
@@ -769,6 +841,9 @@
     <t>28 (+6)</t>
   </si>
   <si>
+    <t>64 (+36)</t>
+  </si>
+  <si>
     <t>t_public_bidding_record</t>
   </si>
   <si>
@@ -796,12 +871,24 @@
     <t>6695 (+2)</t>
   </si>
   <si>
+    <t>6696 (+1)</t>
+  </si>
+  <si>
+    <t>t_public_bidding_record_0626</t>
+  </si>
+  <si>
+    <t>6696 (+6696)</t>
+  </si>
+  <si>
     <t>t_public_bidding_record_bak</t>
   </si>
   <si>
     <t>6693 (+6693)</t>
   </si>
   <si>
+    <t>6693 (+0)</t>
+  </si>
+  <si>
     <t>t_region_code</t>
   </si>
   <si>
@@ -874,6 +961,15 @@
     <t>21255 (+5)</t>
   </si>
   <si>
+    <t>21264 (+9)</t>
+  </si>
+  <si>
+    <t>t_tender_record_0626</t>
+  </si>
+  <si>
+    <t>21264 (+21264)</t>
+  </si>
+  <si>
     <t>t_tender_record_invalid</t>
   </si>
   <si>
@@ -899,6 +995,15 @@
   </si>
   <si>
     <t>18238 (+593)</t>
+  </si>
+  <si>
+    <t>18739 (+501)</t>
+  </si>
+  <si>
+    <t>t_tender_record_invalid_0626</t>
+  </si>
+  <si>
+    <t>18251 (+18251)</t>
   </si>
 </sst>
 </file>
@@ -907,8 +1012,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -934,8 +1039,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -957,22 +1102,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -987,22 +1131,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1010,32 +1138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,16 +1161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,7 +1185,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,151 +1347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,19 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,16 +1380,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,6 +1409,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1318,21 +1438,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,148 +1481,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1847,10 +1952,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1864,10 +1969,11 @@
     <col min="8" max="8" width="11.8181818181818" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.2727272727273" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,1180 +2004,1357 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="K22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" t="s">
-        <v>200</v>
-      </c>
-      <c r="I25" t="s">
         <v>201</v>
       </c>
-      <c r="J25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25"/>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>214</v>
+        <v>201</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28"/>
+        <v>226</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
       <c r="G28" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="H28" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>224</v>
+        <v>64</v>
+      </c>
+      <c r="K29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" t="s">
-        <v>228</v>
-      </c>
-      <c r="F30" t="s">
-        <v>229</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H31" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H33" t="s">
+        <v>263</v>
+      </c>
+      <c r="I33" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>271</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>294</v>
+      </c>
+      <c r="H38" t="s">
+        <v>294</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>299</v>
+      </c>
+      <c r="H39" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" t="s">
+        <v>301</v>
+      </c>
+      <c r="J39" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s">
         <v>246</v>
       </c>
-      <c r="G32" t="s">
-        <v>247</v>
-      </c>
-      <c r="H32" t="s">
-        <v>248</v>
-      </c>
-      <c r="I32" t="s">
-        <v>249</v>
-      </c>
-      <c r="J32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" t="s">
-        <v>254</v>
-      </c>
-      <c r="F33" t="s">
-        <v>255</v>
-      </c>
-      <c r="G33" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" t="s">
-        <v>258</v>
-      </c>
-      <c r="J33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F35" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35" t="s">
-        <v>265</v>
-      </c>
-      <c r="H35" t="s">
-        <v>265</v>
-      </c>
-      <c r="I35" t="s">
-        <v>265</v>
-      </c>
-      <c r="J35" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" t="s">
-        <v>269</v>
-      </c>
-      <c r="E36" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36" t="s">
-        <v>269</v>
-      </c>
-      <c r="G36" t="s">
-        <v>270</v>
-      </c>
-      <c r="H36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37" t="s">
-        <v>275</v>
-      </c>
-      <c r="G37" t="s">
-        <v>223</v>
-      </c>
-      <c r="H37" t="s">
-        <v>223</v>
-      </c>
-      <c r="I37" t="s">
-        <v>223</v>
-      </c>
-      <c r="J37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" t="s">
-        <v>281</v>
-      </c>
-      <c r="G38" t="s">
-        <v>282</v>
-      </c>
-      <c r="H38" t="s">
-        <v>283</v>
-      </c>
-      <c r="I38" t="s">
-        <v>284</v>
-      </c>
-      <c r="J38" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B39" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" t="s">
-        <v>289</v>
-      </c>
-      <c r="F39" t="s">
-        <v>290</v>
-      </c>
-      <c r="G39" t="s">
-        <v>291</v>
-      </c>
-      <c r="H39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I39" t="s">
-        <v>293</v>
-      </c>
-      <c r="J39" t="s">
-        <v>294</v>
+      <c r="H40" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" t="s">
+        <v>246</v>
+      </c>
+      <c r="J40" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>311</v>
+      </c>
+      <c r="H41" t="s">
+        <v>312</v>
+      </c>
+      <c r="I41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" t="s">
+        <v>323</v>
+      </c>
+      <c r="H43" t="s">
+        <v>324</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
